--- a/biology/Zoologie/Buprestis/Buprestis.xlsx
+++ b/biology/Zoologie/Buprestis/Buprestis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buprestis est un genre d'insectes coléoptères de la famille des Buprestidae, de la sous-famille des Buprestinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Fauna Europaea                                      (28 août 2014)[1] : espèces et sous-espèces rencontrées en Europe :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (28 août 2014) : espèces et sous-espèces rencontrées en Europe :
 Buprestis (Buprestis) aetnensis Baviera &amp; Sparacio, 2002
 Buprestis (Buprestis) bertheloti Laporte &amp; Gory, 1837
 Buprestis (Buprestis) cupressi Germar, 1817
@@ -534,7 +548,7 @@
 Buprestis (Buprestis) tarsensis Marseul, 1865
 Buprestis (Cypriacis) splendens Fabricius, 1775
 Buprestis (Pseudyamina) douei Lucas, 1846
-Selon Catalogue of Life                                   (28 août 2014)[2] :
+Selon Catalogue of Life                                   (28 août 2014) :
 Buprestis arborescens
 Buprestis coriacea
 Buprestis exaltata
@@ -544,13 +558,13 @@
 Buprestis gigantea
 Buprestis juncea
 Buprestis latifolia
-Selon ITIS      (28 août 2014)[3] : liste de sous-genres :
+Selon ITIS      (28 août 2014) : liste de sous-genres :
 sous-genre Buprestis (Buprestis) Linnaeus, 1758
 sous-genre Buprestis (Cypriacis) Casey, 1909
 sous-genre Buprestis (Knulliobuprestis) Kurosawa, 1988
 sous-genre Buprestis (Nelsonocheira) Kurosawa, 1988
 sous-genre Buprestis (Stereosa) Casey, 1909
-Selon NCBI  (15 février 2015)[4] :
+Selon NCBI  (15 février 2015) :
 Buprestis dalmatina
 Buprestis haemorrhoidalis
 Buprestis lineata
@@ -558,7 +572,7 @@
 Buprestis novemmaculata
 Buprestis octoguttata
 Buprestis rustica
-Selon Paleobiology Database                   (28 août 2014)[5] :
+Selon Paleobiology Database                   (28 août 2014) :
 Buprestis (Ancylochira)
 Buprestis alutacea
 Buprestis carbonum
